--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4389</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Marcus Peter Stoinis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1700,7 +1765,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1752,7 +1817,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1804,7 +1869,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1856,7 +1921,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1908,7 +1973,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1948,7 +2013,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1996,7 +2060,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>23/03/2019</t>
@@ -2004,7 +2067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2056,7 +2119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2108,7 +2171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2160,7 +2223,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2200,7 +2263,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2208,7 +2270,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2260,7 +2322,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2312,7 +2374,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2364,7 +2426,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2416,7 +2478,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2468,7 +2530,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2520,7 +2582,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2572,7 +2634,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2624,7 +2686,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2676,7 +2738,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2728,7 +2790,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2780,7 +2842,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2832,7 +2894,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2884,7 +2946,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2936,7 +2998,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2988,7 +3050,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3040,7 +3102,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3080,7 +3142,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -3088,7 +3149,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3140,7 +3201,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3192,7 +3253,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3244,7 +3305,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3284,7 +3345,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -3292,7 +3352,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3344,7 +3404,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3396,7 +3456,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3448,7 +3508,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3488,7 +3548,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -3496,7 +3555,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3548,7 +3607,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3587,7 +3646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3609,7 +3668,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3646,7 +3705,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3683,7 +3742,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3720,7 +3779,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3757,7 +3816,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3794,7 +3853,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3831,7 +3890,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3868,7 +3927,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3905,7 +3964,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3942,7 +4001,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3979,7 +4038,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4016,7 +4075,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4053,7 +4112,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4090,7 +4149,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4127,7 +4186,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4164,7 +4223,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4201,7 +4260,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4238,7 +4297,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4275,7 +4334,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4312,7 +4371,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4349,7 +4408,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4386,7 +4445,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4423,7 +4482,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4460,7 +4519,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4497,7 +4556,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4534,7 +4593,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4571,7 +4630,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4608,7 +4667,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4645,7 +4704,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4682,7 +4741,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4719,7 +4778,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4756,7 +4815,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4793,7 +4852,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4830,7 +4889,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4867,7 +4926,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4904,7 +4963,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4941,7 +5000,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4978,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5015,7 +5074,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5052,7 +5111,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5089,7 +5148,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5126,7 +5185,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5163,7 +5222,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5200,7 +5259,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5237,7 +5296,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5274,7 +5333,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5311,7 +5370,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5348,7 +5407,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5385,7 +5444,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5422,7 +5481,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5459,7 +5518,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5496,7 +5555,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5533,7 +5592,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5570,7 +5629,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5596,6 +5655,527 @@
       <c r="G54" t="inlineStr">
         <is>
           <t>1/43</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14.63%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.31%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9.05%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9.45%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9.29%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5728,7 +5729,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5831,10 +5831,6 @@
           <t>4435</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5877,10 +5873,6 @@
           <t>4565</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5923,229 +5915,503 @@
           <t>4594</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9.45%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9.29%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.45%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.13%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.66%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6155,27 +6421,14 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>9.29%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5729,6 +5728,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5831,6 +5831,10 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5873,6 +5877,10 @@
           <t>4565</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5915,6 +5923,10 @@
           <t>4594</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5960,6 +5972,9 @@
       <c r="B12" t="n">
         <v>5</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6002,6 +6017,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6027,6 +6046,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6039,6 +6059,10 @@
           <t>4660</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6051,6 +6075,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6063,6 +6091,10 @@
           <t>4666</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6108,6 +6140,9 @@
       <c r="B20" t="n">
         <v>7</v>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6141,294 +6176,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4316</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4329</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2013,6 +2012,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -2060,6 +2060,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>23/03/2019</t>
@@ -2263,6 +2264,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -3142,6 +3144,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -3345,6 +3348,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -3548,6 +3552,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -5661,525 +5666,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>14.63%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.35%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.31%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.31%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.05%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.45%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.13%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.66%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>9.29%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4389.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2012,7 +2013,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -2060,7 +2060,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>23/03/2019</t>
@@ -2264,7 +2263,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -3144,7 +3142,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -3348,7 +3345,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -3552,7 +3548,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -5666,4 +5661,1555 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3833</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.34%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52.14%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16.34%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.19%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.69%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9.22%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19.01%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>19.58%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.22%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.28%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18.41%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.50%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>16.32%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.49%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9.90%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.35%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3.76%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6.60%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2.81%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8.64%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6.98%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14.63%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>8.31%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>9.05%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>9.45%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>9.29%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>